--- a/tmp/Закупки 2022.xlsx
+++ b/tmp/Закупки 2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,40 +817,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Поставка хлебобулочных изделий (в целях выполнения государственного оборонного заказа)</t>
+          <t>Поставка моторного масла 10W40 (в рамках государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21122220195742222010010000</t>
+          <t>22122220195742222010010000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.71.11.110</t>
+          <t>19.20.29.111</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>341 126н</t>
+          <t>ГОЗ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Тихонов</t>
+          <t>Бурмистров</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -862,35 +862,23 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>103662</v>
+        <v>52493.61</v>
       </c>
       <c r="M5" t="n">
-        <v>103662</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2122202217742000000000000/0317100026321000153</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>ООО "АЛТАЙСКИЙ КАРАВАЙ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>заключен 20.12.2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>20203069990090049223342</t>
+          <t>20203069990090049221343</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -907,40 +895,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Поставка крупы гречневой (в целях выполнения государственного оборонного заказа)</t>
+          <t>Поставка охлаждающей жидкости тосол А-40 (в рамках государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21122220195742222010010000</t>
+          <t>22122220195742222010010000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.61.32.113</t>
+          <t>20.59.43.120</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>ГОЗ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>44880</v>
+        <v>44567</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Тихонов</t>
+          <t>Бурмистров</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -952,35 +940,23 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>31250</v>
+        <v>28293.55</v>
       </c>
       <c r="M6" t="n">
-        <v>31240</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2222202117562000000000000/0317100026321000173</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>ООО "СТАРФУД"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>заключен 26.01.2022</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>20203069990090049223342</t>
+          <t>20203069990090049221343</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -997,7 +973,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Поставка овощей свежих (в целях выполнения государственного оборонного заказа)</t>
+          <t>Поставка хлебобулочных изделий (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1007,12 +983,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01.13</t>
+          <t>10.71.11.110</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>СПМ 126н</t>
+          <t>341 126н</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1026,7 +1002,7 @@
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>44880</v>
+        <v>44573</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1042,30 +1018,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28970</v>
+        <v>103662</v>
       </c>
       <c r="M7" t="n">
-        <v>28970</v>
+        <v>103662</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2222202217572000000000000/0317100026321000174</t>
+          <t>2122202217742000000000000/0317100026321000153</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>ООО "БЭСТ-ТЕРМИНАЛ"</t>
+          <t>ООО "АЛТАЙСКИЙ КАРАВАЙ"</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>заключен 25.01.2022</t>
+          <t>заключен 20.12.2021</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1087,7 +1063,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Поставка молока сгущенного (в целях выполнения государственного оборонного заказа)</t>
+          <t>Поставка крупы гречневой (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1097,12 +1073,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.51.51.113</t>
+          <t>10.61.32.113</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>СМП 832</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1132,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>52800</v>
+        <v>31250</v>
       </c>
       <c r="M8" t="n">
-        <v>35640</v>
+        <v>31240</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2222202117582000000000000/0317100026321000175</t>
+          <t>2222202117562000000000000/0317100026321000173</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>ООО "АПЕЛЬСИН"</t>
+          <t>ООО "СТАРФУД"</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1177,7 +1153,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Поставка фасоли консервированной (в целях выполнения государственного оборонного заказа)</t>
+          <t>Поставка овощей свежих (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1187,18 +1163,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.39.15.000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>01.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>СПМ 126н</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1218,20 +1198,32 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3950</v>
+        <v>28970</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+        <v>28970</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2222202217572000000000000/0317100026321000174</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>ООО "БЭСТ-ТЕРМИНАЛ"</t>
+        </is>
+      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>заключен 25.01.2022</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>20203069990090049223342</t>
@@ -1246,28 +1238,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0057</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Услуги телефонной связи (в рамках ИКТ)</t>
+          <t>Поставка молока сгущенного (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21122220195742222010010035</t>
+          <t>21122220195742222010010000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61.20.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>10.51.51.113</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>СМП 832</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1276,72 +1272,84 @@
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>25569</v>
+        <v>44880</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Квасов</t>
+          <t>Тихонов</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>62707.32</v>
+        <v>52800</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+        <v>35640</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2222202117582000000000000/0317100026321000175</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>ООО "АПЕЛЬСИН"</t>
+        </is>
+      </c>
       <c r="P10" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75000</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>заключен 26.01.2022</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>20203069990090049242221</t>
+          <t>20203069990090049223342</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0057</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Услуги телефонной связи (в рамках ИКТ)</t>
+          <t>Поставка фасоли консервированной (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>21122220195742222010010000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>61.20.11</t>
+          <t>10.39.15.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1350,23 +1358,23 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>25569</v>
+        <v>44880</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Квасов</t>
+          <t>Тихонов</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9292.68</v>
+        <v>3950</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1382,20 +1390,24 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t>20203069990090049242221</t>
+          <t>20203069990090049223342</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0057</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Оказание услуг местной телефонной связи (в рамках ИКТ)</t>
+          <t>Услуги телефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1405,14 +1417,10 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>61.10.11.120</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2385</t>
-        </is>
-      </c>
+          <t>61.20.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>п4</t>
@@ -1424,7 +1432,7 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>44926</v>
+        <v>25569</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1437,35 +1445,23 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>62707.32</v>
       </c>
       <c r="M12" t="n">
-        <v>30240</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>100300275121100043</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>АО "ЗАП-СИБТРАНСТЕЛЕКОМ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>заключен 28.10.2021</t>
-        </is>
-      </c>
+        <v>70000</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>20203069990090049242221</t>
@@ -1481,7 +1477,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Оказание услуг подвижной радиотелефонной связи (в рамках ИКТ)</t>
+          <t>Оказание услуг местной телефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>61.20.11.000</t>
+          <t>61.10.11.120</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1529,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7056</v>
+        <v>30240</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100300275121100047</t>
+          <t>100300275121100043</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>ПАО "МОБИЛЬНЫЕ ТЕЛЕСИСТЕМЫ"</t>
+          <t>АО "ЗАП-СИБТРАНСТЕЛЕКОМ"</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>заключен 17.11.2021</t>
+          <t>заключен 28.10.2021</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1567,7 +1563,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Оказание услуг конфиденциальной сотовой связи (в рамках ИКТ)</t>
+          <t>Оказание услуг подвижной радиотелефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1577,7 +1573,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>61.20.20.000</t>
+          <t>61.20.11.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1615,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>22320</v>
+        <v>7056</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>100300275121100050</t>
+          <t>100300275121100047</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>ПАО "МЕГАФОН"</t>
+          <t>ПАО "МОБИЛЬНЫЕ ТЕЛЕСИСТЕМЫ"</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1635,7 +1631,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>заключен 25.11.2021</t>
+          <t>заключен 17.11.2021</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1653,20 +1649,24 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Оказание услуг местной телефонной связи 2021</t>
+          <t>Оказание услуг конфиденциальной сотовой связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20122220195742222010010062</t>
+          <t>21122220195742222010010035</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>61.10.11.120</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>61.20.20.000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2385</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>п4</t>
@@ -1674,18 +1674,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Квасов</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1693,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>209.78</v>
+        <v>22320</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>100300275120000059</t>
+          <t>100300275121100050</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>АО "Зап-Сибтранстелеком"</t>
+          <t>ПАО "МЕГАФОН"</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1713,7 +1717,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>заключен 03.12.2020, исполнен 20.01.2022</t>
+          <t>заключен 25.11.2021</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1731,7 +1735,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Оказание услуг фиксированной телефонной связи 2021</t>
+          <t>Оказание услуг местной телефонной связи 2021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1741,7 +1745,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>61.10.11</t>
+          <t>61.10.11.120</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1771,117 +1775,105 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>209.78</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>100300275120000059</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>АО "Зап-Сибтранстелеком"</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>заключен 03.12.2020, исполнен 20.01.2022</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>20203069990090049242221</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>унто</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Оказание услуг фиксированной телефонной связи 2021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20122220195742222010010062</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>61.10.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>п4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Квасов</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>2881.54</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>100300275120000081</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>ПАО "РОСТЕЛЕКОМ"</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>заключен 23.12.2020, исполнен 23.12.2021</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>20203069990090049242221</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>унто</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>0149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Оказание услуг местной, внутризоновой и междугородней телефонной связи (в рамках ИКТ)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21122220195742222010010177</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>61.10.11.110</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2385 3653 ЭП</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>п2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Квасов</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>57-ФЗ</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>ПАО "РОСТЕЛЕКОМ"</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>30000</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>30000</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>заключен 24.11.2021</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1898,17 +1890,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0150</t>
+          <t>0149</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Оказание услуг внутризоновой и междугородней телефонной связи (в рамках ИКТ)</t>
+          <t>Оказание услуг местной, внутризоновой и междугородней телефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21122220195742222010010176</t>
+          <t>21122220195742222010010177</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1948,14 +1940,14 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1964,10 +1956,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1988,32 +1980,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0011</t>
+          <t>0150</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Оказание услуг по заправке и восстановлению картриджей для принтеров, техническому обслуживанию и ремонту периферийного оборудования (в рамках ИКТ)</t>
+          <t>Оказание услуг внутризоновой и междугородней телефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21122220195742222010010002</t>
+          <t>21122220195742222010010176</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>95.11.10.130</t>
+          <t>61.10.11.110</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>СМП ЭП</t>
+          <t>2385 3653 ЭП</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2022,51 +2014,51 @@
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>44816</v>
+        <v>44926</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Кандауров</t>
+          <t>Квасов</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>№ 1047</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>115000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>115000</v>
+        <v>10000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0317100026321000147</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ИП ВОЛОКИТИНА ОЛЬГА ВЛАДИМИРОВНА</t>
+          <t>ПАО "РОСТЕЛЕКОМ"</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>115000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="n">
-        <v>115000</v>
+        <v>10000</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>заключен 03.12.2021</t>
+          <t>заключен 24.11.2021</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>20203069990090049242225</t>
+          <t>20203069990090049242221</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2078,12 +2070,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0111</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Оказание услуг по специальной проверке и специальным исследованиям технических средств иностранного производства (в рамках ИКТ)</t>
+          <t>Оказание услуг по подключению к системе электронного документооборота с использованием сертифицированных средств криптографической защиты информации (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2093,10 +2085,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>71.20.13.110</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>61.10.30.120</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>п4</t>
@@ -2108,11 +2104,11 @@
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>44573</v>
+        <v>44816</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Амеличкин</t>
+          <t>Зорькин</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2121,38 +2117,38 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>130852.5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="M20" t="n">
-        <v>132200</v>
+        <v>7400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>100300275122100004</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>ФГУП НПП "ГАММА"</t>
+          <t>ООО "КОМПАНИЯ ПРОКС"</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>130252.5</v>
+        <v>52.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>130252.5</v>
+        <v>3052.5</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>заключен 01.03.2022</t>
+          <t>заключен 29.03.2022</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>20203069990090049242226</t>
+          <t>20203069990090049242221</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2164,12 +2160,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0058</t>
+          <t>-0152</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Оказание услуг по обслуживанию, сопровождению и обновлению программных продуктов на базе «1С Предприятие 8.3. (в рамках ИКТ)</t>
+          <t>Предоставление неисключительных прав на использование программного обеспечения ViPNet (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2179,10 +2175,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>62.02.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>58.29.12.000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>права</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>п4</t>
@@ -2194,39 +2194,43 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>44846</v>
+        <v>25569</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Зорькин</t>
+          <t>Амеличкин</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">402-ФЗ </t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>50000</v>
+        <v>1947.5</v>
       </c>
       <c r="L21" t="n">
-        <v>48652.5</v>
+        <v>1892.68</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1947.5</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>50000</v>
+        <v>1947.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>50000</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
+        <v>1947.5</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>16.11.2022</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20203069990090049242226</t>
+          <t>20203069990090049242221</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2238,27 +2242,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0093</t>
+          <t>0011</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Оказание услуг по обновлению, обслуживанию, адаптации и модификации ранее установленных электронных баз данных справочной правовой системы ГАРАНТ (в рамках ИКТ)</t>
+          <t>Оказание услуг по заправке и восстановлению картриджей для принтеров, техническому обслуживанию и ремонту периферийного оборудования (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21122220195742222010010020</t>
+          <t>21122220195742222010010002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>62.02.30.000</t>
+          <t>95.11.10.130</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>СМП 1236 ЭП</t>
+          <t>СМП ЭП</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2272,51 +2276,51 @@
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>44915</v>
+        <v>44816</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Кандауров</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>№ 1047</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>84000</v>
+        <v>115000</v>
       </c>
       <c r="M22" t="n">
-        <v>84000</v>
+        <v>115000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0317100026321000145</t>
+          <t>0317100026321000147</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>ООО "ГАРАНТ-АЛТАЙ"</t>
+          <t>ИП ВОЛОКИТИНА ОЛЬГА ВЛАДИМИРОВНА</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>84000</v>
+        <v>115000</v>
       </c>
       <c r="Q22" t="n">
-        <v>84000</v>
+        <v>115000</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>заключен 29.11.2021</t>
+          <t>заключен 03.12.2021</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20203069990090049242226</t>
+          <t>20203069990090049242225</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2328,37 +2332,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0148</t>
+          <t>0111</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Оказание услуг по обновлению программного комплекса РИК версии «ПРОФ» с электронной сметно-нормативной базой данных (в рамках ИКТ)</t>
+          <t>Оказание услуг по специальной проверке и специальным исследованиям технических средств иностранного производства (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21122220195742222010010174</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>62.02.30.000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>СМП 1236 ЭП права</t>
-        </is>
-      </c>
+          <t>71.20.13.110</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Амеличкин</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2375,33 +2375,33 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>130852.5</v>
       </c>
       <c r="L23" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>66000</v>
+        <v>132200</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0317100026321000146</t>
+          <t>56</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>ООО " АЛТАЙСКИЙ ЦЕНТР " РИК "</t>
+          <t>ФГУП НПП "ГАММА"</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>66600</v>
+        <v>132200</v>
       </c>
       <c r="Q23" t="n">
-        <v>66600</v>
+        <v>132200</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>заключен 29.11.2021</t>
+          <t>заключен 01.03.2022</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2418,12 +2418,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0152</t>
+          <t>0058</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Предоставление неисключительных прав на использование программного обеспечения ViPNet (в рамках ИКТ)</t>
+          <t>Оказание услуг по обслуживанию и обновлению программных продуктов «1С: Предприятие» (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.29.12.000</t>
+          <t>62.02.30.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>права</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2452,23 +2452,23 @@
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>25569</v>
+        <v>44816</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Амеличкин</t>
+          <t>Зорькин</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t xml:space="preserve">402-ФЗ </t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L24" t="n">
-        <v>1947.5</v>
+        <v>50600</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2476,16 +2476,12 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>1947.5</v>
+        <v>50000</v>
       </c>
       <c r="Q24" t="n">
-        <v>1947.5</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>декабрь 2022</t>
-        </is>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>20203069990090049242226</t>
@@ -2500,73 +2496,85 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0061</t>
+          <t>0093</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Коммутатор (в рамках ИКТ)</t>
+          <t>Оказание услуг по обновлению, обслуживанию, адаптации и модификации ранее установленных электронных баз данных справочной правовой системы ГАРАНТ (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22122220195742222010010064</t>
+          <t>21122220195742222010010020</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26.30.11.110</t>
+          <t>62.02.30.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2014 878 126н</t>
+          <t>СМП ЭП</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>44567</v>
+        <v>44915</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Кандауров</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>84000</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+        <v>84000</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0317100026321000145</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>ООО "ГАРАНТ-АЛТАЙ"</t>
+        </is>
+      </c>
       <c r="P25" t="n">
-        <v>45000</v>
+        <v>84000</v>
       </c>
       <c r="Q25" t="n">
-        <v>45000</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
+        <v>84000</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>заключен 29.11.2021</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20203069990090049242310</t>
+          <t>20203069990090049242226</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2578,27 +2586,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0153</t>
+          <t>0148</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Поставка УКВ радиостанций (в рамках ИКТ)</t>
+          <t>Оказание услуг по обновлению программного комплекса РИК версии «ПРОФ» с электронной сметно-нормативной базой данных (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21122220195742222010010181</t>
+          <t>21122220195742222010010174</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26.30.11.150</t>
+          <t>62.02.30.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>СМП 878 126н 2014</t>
+          <t>СМП ЭП права</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2612,11 +2620,11 @@
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>44567</v>
+        <v>44573</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Кандауров</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2628,35 +2636,35 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>34000</v>
+        <v>66000</v>
       </c>
       <c r="M26" t="n">
-        <v>34000</v>
+        <v>66000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0317100026321000154</t>
+          <t>0317100026321000146</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>ООО "ФЕНИКС"</t>
+          <t>ООО " АЛТАЙСКИЙ ЦЕНТР " РИК "</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>66600</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>66600</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>заключен 20.12.2021</t>
+          <t>заключен 29.11.2021</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>20203069990090049242310</t>
+          <t>20203069990090049242226</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2668,28 +2676,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0138</t>
+          <t>0061</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Поставка комплектующих для оргтехники (в рамках ИКТ)</t>
+          <t>Коммутатор (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>22122220195742222010010064</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>26.20.40.190</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>26.30.11.110</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2014 878 126н</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2698,7 +2710,7 @@
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>25569</v>
+        <v>44567</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2711,10 +2723,10 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="L27" t="n">
-        <v>270</v>
+        <v>1868</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2722,15 +2734,19 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
+        <v>45000</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>остаток</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>20203069990090049242346</t>
+          <t>20203069990090049242310</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2742,27 +2758,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0159</t>
+          <t>0153</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Поставка картриджей для плоттера HP Designjet 500 Plus (в рамках ИКТ)</t>
+          <t>Поставка УКВ радиостанций (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21122220195742222010010184</t>
+          <t>21122220195742222010010181</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28.99.40.110</t>
+          <t>26.30.11.150</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>СМП 126н не РФ</t>
+          <t>СМП 878 126н 2014</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2776,51 +2792,51 @@
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>44680</v>
+        <v>44567</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Кудрявцев</t>
+          <t>Кандауров</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>№ 1013</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M28" t="n">
-        <v>26730</v>
+        <v>34000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0317100026321000167</t>
+          <t>0317100026321000154</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>ООО "ВОРКГРУПП"</t>
+          <t>ООО "ФЕНИКС"</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>заключен 24.01.2022, исполнен 15.02.2022</t>
+          <t>заключен 20.12.2021</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20203069990090049242346</t>
+          <t>20203069990090049242310</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2832,22 +2848,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0027</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Оплата услуг по доставке корреспонденции Почтой России</t>
+          <t>Поставка карт флеш памяти (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>22122220195742222010010075</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>53.20.11.110</t>
+          <t>26.20.21.110</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2857,7 +2873,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2866,11 +2882,11 @@
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>44926</v>
+        <v>44767</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Анчухин</t>
+          <t>Глухих</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2882,23 +2898,23 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5000</v>
+        <v>9132</v>
       </c>
       <c r="M29" t="n">
-        <v>1745.2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20203069990090049244221</t>
+          <t>20203069990090049242310</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2910,85 +2926,73 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0084</t>
+          <t>0138</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Оказание услуг специальной связи по доставке отправлений</t>
+          <t>Поставка комплектующих для оргтехники (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21122220195742222010010023</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>53.20.11.110</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
+          <t>26.20.40.190</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>п6</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>44926</v>
+        <v>25569</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Анчухин</t>
+          <t>Кандауров</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>405000</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
-        <v>225000</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1145</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Управление специальной связи по Алтайскому краю</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>405000</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>410000</v>
+        <v>0</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>заключен 27.12.2021</t>
+          <t>остаток</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20203069990090049244221</t>
+          <t>20203069990090049242346</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3000,32 +3004,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0085</t>
+          <t>0159</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Оказание услуг федеральной фельдъегерской связи</t>
+          <t>Поставка картриджей для плоттера HP Designjet 500 Plus (в рамках ИКТ)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21122220195742222010010024</t>
+          <t>21122220195742222010010184</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>53.20.11.121</t>
+          <t>28.99.40.110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>СМП 126н не РФ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>п6</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3034,51 +3038,51 @@
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>44926</v>
+        <v>44680</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Анчухин</t>
+          <t>Кудрявцев</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>№ 1013</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="M31" t="n">
-        <v>75000</v>
+        <v>26730</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0317100026321000167</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>отдел ГФС России в г. Барнауле</t>
+          <t>ООО "ВОРКГРУПП"</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="Q31" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>заключен 28.12.2021</t>
+          <t>заключен 24.01.2022, исполнен 15.02.2022</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20203069990090049244221</t>
+          <t>20203069990090049242346</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3090,45 +3094,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0171</t>
+          <t>0027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Аренда жилого помещения</t>
+          <t>Оплата услуг по доставке корреспонденции Почтой России</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21122220195742222010010016</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>68.20.11.000</t>
+          <t>53.20.11.110</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Анчухин</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3137,72 +3141,68 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>159000</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1745.2</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>отмена</t>
-        </is>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>20203069990090049244224</t>
+          <t>20203069990090049244221</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0171</t>
+          <t>0084</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Оказание услуги по аренде жилого помещения (для проживания сотрудника)</t>
+          <t>Оказание услуг специальной связи по доставке отправлений</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22122220195742222010010050</t>
+          <t>21122220195742222010010023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>68.20.11.000</t>
+          <t>53.20.11.110</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>п6</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Анчухин</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3222,60 +3222,72 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>159000</v>
+        <v>405000</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+        <v>225000</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Управление специальной связи по Алтайскому краю</t>
+        </is>
+      </c>
       <c r="P33" t="n">
-        <v>318000</v>
+        <v>405000</v>
       </c>
       <c r="Q33" t="n">
-        <v>318000</v>
-      </c>
-      <c r="R33" t="inlineStr"/>
+        <v>410000</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>заключен 27.12.2021</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20203069990090049244224</t>
+          <t>20203069990090049244221</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0082</t>
+          <t>0085</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Аренда жилого помещения</t>
+          <t>Оказание услуг федеральной фельдъегерской связи</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21122220195742222010010035</t>
+          <t>21122220195742222010010024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>68.20.11.000</t>
+          <t>53.20.11.121</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>п6</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3284,11 +3296,11 @@
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Анчухин</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3300,85 +3312,85 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>159000</v>
+        <v>75000</v>
       </c>
       <c r="M34" t="n">
-        <v>159000</v>
+        <v>75000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Попова Раиса Александровна</t>
+          <t>отдел ГФС России в г. Барнауле</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>заключен 29.11.2021</t>
+          <t>заключен 28.12.2021</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20203069990090049244224</t>
+          <t>20203069990090049244221</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0090</t>
+          <t>0171</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Услуги по дезинсекции и дератизации</t>
+          <t>Оказание услуги по аренде жилого помещения (для проживания сотрудника)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21122220195742222010010019</t>
+          <t>22122220195742222010010050</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>81.29.11.000</t>
+          <t>68.20.11.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>СМП ЭП</t>
+          <t>685 НДФЛ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>44910</v>
+        <v>44926</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Резниченко</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3390,35 +3402,31 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>30016.34</v>
+        <v>159000</v>
       </c>
       <c r="M35" t="n">
-        <v>9905.5</v>
+        <v>159000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0317100026321000138</t>
+          <t>0317100026322000007</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>ООО "КФК"</t>
+          <t>Попова Раиса Александровна</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>30016.34</v>
+        <v>318000</v>
       </c>
       <c r="Q35" t="n">
-        <v>30016.34</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>заключен 25.10.2021</t>
-        </is>
-      </c>
+        <v>318000</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20203069990090049244225</t>
+          <t>20203069990090049244224</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3430,32 +3438,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0155</t>
+          <t>0082</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Оказание услуг по стирке белья</t>
+          <t>Аренда жилого помещения</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21122220195742222010010180</t>
+          <t>21122220195742222010010035</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>96.01.19.139</t>
+          <t>68.20.11.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>685</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3464,51 +3472,51 @@
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>44918</v>
+        <v>44742</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Крупин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">52-ФЗ </t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68000</v>
+        <v>159000</v>
       </c>
       <c r="M36" t="n">
-        <v>26820</v>
+        <v>159000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0317100026321000157</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>ООО "КВИНТЕТ СЕРВИС +"</t>
+          <t>Попова Раиса Александровна</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>заключен 24.12.2021</t>
+          <t>заключен 29.11.2021</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>20203069990090049244225</t>
+          <t>20203069990090049244224</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3520,27 +3528,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0067</t>
+          <t>-0090</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Оказание услуг по техническому обслуживанию систем обеспечения пожарной безопасности зданий и сооружений для государственных нужд</t>
+          <t>Услуги по дезинсекции и дератизации</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21122220195742222010010022</t>
+          <t>21122220195742222010010019</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>80.20.10.000</t>
+          <t>81.29.11.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>СМП 756 ЭП лиц</t>
+          <t>СМП ЭП</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3554,46 +3562,46 @@
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>Резниченко</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>114000</v>
+        <v>30016.34</v>
       </c>
       <c r="M37" t="n">
-        <v>55950</v>
+        <v>9905.5</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0317100026321000143</t>
+          <t>0317100026321000138</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>ООО "ВИДЕОТЕХНОЛОГИИ"</t>
+          <t>ООО "КФК"</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>114000</v>
+        <v>30016.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>114000</v>
+        <v>30016.34</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>заключен 22.11.2021</t>
+          <t>заключен 25.10.2021</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3610,70 +3618,82 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0155</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Оказание услуг по поверке средств измерений</t>
+          <t>Оказание услуг по стирке белья</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22122220195742222010010036</t>
+          <t>21122220195742222010010180</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>71.12.40.129</t>
+          <t>96.01.19.139</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>аккред</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>44729</v>
+        <v>44918</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Бурмистров</t>
+          <t>Крупин</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>102-ФЗ</t>
+          <t xml:space="preserve">52-ФЗ </t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>88979.52</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>50624.42</v>
+        <v>68000</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+        <v>26820</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0317100026321000157</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>ООО "КВИНТЕТ СЕРВИС +"</t>
+        </is>
+      </c>
       <c r="P38" t="n">
-        <v>2983.66</v>
+        <v>68000</v>
       </c>
       <c r="Q38" t="n">
-        <v>2983.66</v>
-      </c>
-      <c r="R38" t="inlineStr"/>
+        <v>68000</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>заключен 24.12.2021</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>20203069990090049244225</t>
@@ -3688,27 +3708,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0063</t>
+          <t>0067</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Оказание услуг по перезарядке и обслуживанию огнетушителей</t>
+          <t>Оказание услуг по техническому обслуживанию систем обеспечения пожарной безопасности зданий и сооружений для государственных нужд</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21122220195742222010010021</t>
+          <t>21122220195742222010010022</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>33.12.29.900</t>
+          <t>80.20.10.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>СМП ЭП лиц</t>
+          <t>СМП 756 ЭП лиц</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3722,7 +3742,7 @@
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>44840</v>
+        <v>44907</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3731,37 +3751,37 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>390</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>85086.66</v>
+        <v>114000</v>
       </c>
       <c r="M39" t="n">
-        <v>25457.03</v>
+        <v>55950</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0317100026321000151</t>
+          <t>0317100026321000143</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>ООО ПОЖ "СТРОЙ-РЕГИОН"</t>
+          <t>ООО "ВИДЕОТЕХНОЛОГИИ"</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>заключен 13.12.2021</t>
+          <t>заключен 22.11.2021</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3778,17 +3798,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0033</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Оказание услуг по поверке узла учета тепловой энергии</t>
+          <t>Оказание услуг по поверке средств измерений</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21122220195742222010010077</t>
+          <t>22122220195742222010010036</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3798,60 +3818,60 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>СМП аккред</t>
+          <t>аккред</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44694</v>
+        <v>44729</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Бурмистров</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>102-ФЗ</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>22410</v>
+        <v>50624.42</v>
       </c>
       <c r="M40" t="n">
-        <v>7887.95</v>
+        <v>39790.61</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0317100026321000161</t>
+          <t>0317100026322000003</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>ООО "ВЗЛЕТ-АЛТАЙ СЕРВИС"</t>
+          <t>ФБУ "Алтайский ЦСМ"</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2983.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2983.66</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>заключен 28.12.2021</t>
+          <t>заключен 04.04.2022</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3868,41 +3888,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0093</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Выполнение работ по техническому обслуживанию наружного освещения</t>
+          <t>Оказание услуг по испытанию средств защиты, электроинструмента и электроизоляционного инструмента</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21122220195742222010010129</t>
+          <t>22122220195742222010010067</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>43.21.10.290</t>
+          <t>71.20.12.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>аккредитация</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44620</v>
+        <v>44742</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3918,32 +3938,20 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>318532.8</v>
+        <v>10943.35</v>
       </c>
       <c r="M41" t="n">
-        <v>208824.58</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0317100026321000159</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>ИП БОНДАРЕНКО ДЕНИС ВИКТОРОВИЧ</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>622600</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>622600</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>заключен 28.12.2021, исполнен 02.03.2022</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>20203069990090049244225</t>
@@ -3951,66 +3959,78 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0032</t>
+          <t>0063</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Выполнение работ по техническому обслуживанию участка трубопровода системы теплоснабжения</t>
+          <t>Оказание услуг по перезарядке и обслуживанию огнетушителей</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22122220195742222010010034</t>
+          <t>21122220195742222010010021</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>33.12.19.000</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>33.12.29.900</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>СМП ЭП лиц</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>44772</v>
+        <v>44840</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>99682.3</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>100124.02</v>
+        <v>85086.66</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+        <v>25457.03</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0317100026321000151</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ООО ПОЖ "СТРОЙ-РЕГИОН"</t>
+        </is>
+      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
@@ -4019,7 +4039,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>остаток</t>
+          <t>заключен 13.12.2021</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4029,34 +4049,34 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0033</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Выполнение работ по техническому обслуживанию подвальных помещений зданий военного городка</t>
+          <t>Оказание услуг по поверке узла учета тепловой энергии</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21122220195742222010010036</t>
+          <t>21122220195742222010010077</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>41.20.40.900</t>
+          <t>71.12.40.129</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>СМП аккред</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4070,7 +4090,7 @@
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>44617</v>
+        <v>44694</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4086,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>151926</v>
+        <v>22410</v>
       </c>
       <c r="M43" t="n">
-        <v>151926</v>
+        <v>7887.95</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0317100026321000158</t>
+          <t>0317100026321000161</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>ИП БОНДАРЕНКО ДЕНИС ВИКТОРОВИЧ</t>
+          <t>ООО "ВЗЛЕТ-АЛТАЙ СЕРВИС"</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4109,7 +4129,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>заключен 28.12.2021, исполнен 02.03.2022</t>
+          <t>заключен 28.12.2021</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4119,89 +4139,77 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0156</t>
+          <t>0019</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Выполнение работ по техническому обслуживанию системы ГВС</t>
+          <t>Выполнение работ по обработке огнезащитным составом деревянных элементов конструкций</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21122220195742222010010179</t>
+          <t>22122220195742222010010076</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>43.22.12.140</t>
+          <t>43.29.11.140</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>лицензия</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>44645</v>
+        <v>25569</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>390</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6757.21</v>
       </c>
       <c r="L44" t="n">
-        <v>130000</v>
+        <v>8197.200000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>129350</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0317100026321000163</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>ООО ПРОИЗВОДСТВЕННАЯ КОМПАНИЯ "ТЕХСТАНДАРТ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>заключен 10.01.2022, исполнен 28.02.2022</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>20203069990090049244225</t>
@@ -4209,34 +4217,34 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0157</t>
+          <t>0093</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Оказание услуг по обследованию зданий военного городка</t>
+          <t>Выполнение работ по техническому обслуживанию наружного освещения</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21122220195742222010010178</t>
+          <t>21122220195742222010010129</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>71.20.19.190</t>
+          <t>43.21.10.290</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>СМП СРО</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4250,7 +4258,7 @@
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>44645</v>
+        <v>44620</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4266,30 +4274,30 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>43916</v>
+        <v>318532.8</v>
       </c>
       <c r="M45" t="n">
-        <v>43916</v>
+        <v>208824.58</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0317100026321000160</t>
+          <t>0317100026321000159</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>ООО "Алтайтехноинжиниринг"</t>
+          <t>ИП БОНДАРЕНКО ДЕНИС ВИКТОРОВИЧ</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>622600</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>622600</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>заключен 27.12.2021, исполнен 24.02.2022</t>
+          <t>заключен 28.12.2021, исполнен 02.03.2022</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4306,27 +4314,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0064</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Оказание услуг по испытанию средств защиты</t>
+          <t>Выполнение работ по техническому обслуживанию подвальных помещений зданий военного городка</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21122220195742222010010004</t>
+          <t>21122220195742222010010036</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>71.20.12.000</t>
+          <t>41.20.40.900</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>СМП аккр ЭП</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4340,46 +4348,46 @@
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>44895</v>
+        <v>44617</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Рубайлов</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>№ 261</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>49629</v>
+        <v>151926</v>
       </c>
       <c r="M46" t="n">
-        <v>24066.65</v>
+        <v>151926</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0317100026321000150</t>
+          <t>0317100026321000158</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>ООО "АС-СЕРВИСЭНЕРГО"</t>
+          <t>ИП БОНДАРЕНКО ДЕНИС ВИКТОРОВИЧ</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>84208</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84208</v>
+        <v>0</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>заключен 06.12.2021</t>
+          <t>заключен 28.12.2021, исполнен 02.03.2022</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4389,34 +4397,34 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0156</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Оказание услуг по испытанию электроустановок</t>
+          <t>Выполнение работ по техническому обслуживанию системы ГВС</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21122220195742222010010003</t>
+          <t>21122220195742222010010179</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>71.20.13.110</t>
+          <t>43.22.12.140</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>СМП аккр ЭП</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4430,46 +4438,46 @@
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>44865</v>
+        <v>44645</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Рубайлов</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>№ 6 «Об утв</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>45970</v>
+        <v>130000</v>
       </c>
       <c r="M47" t="n">
-        <v>9883.549999999999</v>
+        <v>129350</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0317100026321000152</t>
+          <t>0317100026321000163</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>ООО "АС-СЕРВИСЭНЕРГО"</t>
+          <t>ООО ПРОИЗВОДСТВЕННАЯ КОМПАНИЯ "ТЕХСТАНДАРТ"</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>45970</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>45970</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>заключен 13.12.2021</t>
+          <t>заключен 10.01.2022, исполнен 28.02.2022</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4479,77 +4487,89 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0084</t>
+          <t>0157</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Оказание услуг по поверке измерительных приборов</t>
+          <t>Оказание услуг по обследованию зданий военного городка</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22122220195742222010010041</t>
+          <t>21122220195742222010010178</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>71.12.40.129</t>
+          <t>71.20.19.190</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>аккредитация</t>
+          <t>СМП СРО</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>44879</v>
+        <v>44645</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Квасов</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>102-ФЗ</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>116549.8</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>116108.08</v>
+        <v>43916</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+        <v>43916</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0317100026321000160</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ООО "Алтайтехноинжиниринг"</t>
+        </is>
+      </c>
       <c r="P48" t="n">
-        <v>20322</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>20322</v>
-      </c>
-      <c r="R48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>заключен 27.12.2021, исполнен 24.02.2022</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>20203069990090049244225</t>
@@ -4557,89 +4577,85 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0205</t>
+          <t>0012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Оказание услуг по техническому обслуживанию изделий медицинской техники</t>
+          <t>Выполнение работ по техническому обслуживанию воздушных линий</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21122220195742222010010025</t>
+          <t>22122220195742222010010074</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>33.13.12.000</t>
+          <t>43.21.10.290</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>лицен ЭП</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>44910</v>
+        <v>44742</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Резниченко</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>22354.99</v>
+        <v>101812.8</v>
       </c>
       <c r="M49" t="n">
-        <v>22354.99</v>
+        <v>101812.8</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0317100026321000140</t>
+          <t>0317100026322000014</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>ООО "ХИРОН"</t>
+          <t>ИП БОНДАРЕНКО ДЕНИС ВИКТОРОВИЧ</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>50000</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>заключен 18.10.2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>20203069990090049244225</t>
@@ -4647,34 +4663,34 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>умо</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>0064</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Оказание услуг по поверке изделий медицинской техники</t>
+          <t>Оказание услуг по испытанию средств защиты</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>21122220195742222010010015</t>
+          <t>21122220195742222010010004</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>71.12.40.129</t>
+          <t>71.20.12.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>КПП аккр ЭП</t>
+          <t>СМП аккр ЭП</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4688,46 +4704,46 @@
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>44910</v>
+        <v>44895</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Резниченко</t>
+          <t>Рубайлов</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>№ 261</t>
         </is>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>34719.73</v>
+        <v>49629</v>
       </c>
       <c r="M50" t="n">
-        <v>34546.13</v>
+        <v>24066.65</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0317100026321000141</t>
+          <t>0317100026321000150</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>АО "АЛТАЙМЕДТЕХНИКА"</t>
+          <t>ООО "АС-СЕРВИСЭНЕРГО"</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>18000</v>
+        <v>84208</v>
       </c>
       <c r="Q50" t="n">
-        <v>18000</v>
+        <v>84208</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>заключен 27.10.2021</t>
+          <t>заключен 06.12.2021</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4737,34 +4753,34 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>умо</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0147</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Оказание возмездных услуг по сбору, транспортированию и обезвреживанию отходов</t>
+          <t>Оказание услуг по испытанию электроустановок</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21122220195742222010010175</t>
+          <t>21122220195742222010010003</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>38.22.19.000</t>
+          <t>71.20.13.110</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>СМП ЭП лиц</t>
+          <t>СМП аккр ЭП</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4778,84 +4794,88 @@
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>44816</v>
+        <v>44865</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Анчухина</t>
+          <t>Рубайлов</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7-ФЗ</t>
+          <t>№ 6 «Об утв</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>24365.97</v>
+        <v>45970</v>
       </c>
       <c r="M51" t="n">
-        <v>24365.97</v>
+        <v>9883.549999999999</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0317100026321000144</t>
+          <t>0317100026321000152</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>ООО "ЭКОЛОГИЯ"</t>
+          <t>ООО "АС-СЕРВИСЭНЕРГО"</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>32000</v>
+        <v>45970</v>
       </c>
       <c r="Q51" t="n">
-        <v>32000</v>
+        <v>45970</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>заключен 29.11.2021</t>
+          <t>заключен 13.12.2021</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>20203069990090049244226</t>
+          <t>20203069990090049244225</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Оказание услуг по сбору, транспортированию и обезвреживанию медицинских отходов класса Б</t>
+          <t>Оказание услуг по поверке измерительных приборов</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>22122220195742222010010041</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>38.22.19.000</t>
+          <t>71.12.40.129</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>аккредитация</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4864,159 +4884,183 @@
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>44816</v>
+        <v>44879</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Анчухина</t>
+          <t>Квасов</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>89-ФЗ</t>
+          <t>102-ФЗ</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>7324.5</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>6146.5</v>
+        <v>116108.08</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+        <v>109771.99</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0317100026322000005</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>ФБУ "Алтайский ЦСМ"</t>
+        </is>
+      </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>20322</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>20322</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>20203069990090049244226</t>
+          <t>20203069990090049244225</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>унто</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Оказание услуг по сбору, транспортированию и обезвреживанию медицинских отходов класса Г</t>
+          <t>Оказание услуг по техническому обслуживанию изделий медицинской техники</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>21122220195742222010010025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>38.22.19.000</t>
+          <t>33.13.12.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>лицензия</t>
+          <t>лицен ЭП</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>44816</v>
+        <v>44910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Анчухина</t>
+          <t>Резниченко</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>89-ФЗ</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1501</v>
+        <v>22354.99</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+        <v>22354.99</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0317100026321000140</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>ООО "ХИРОН"</t>
+        </is>
+      </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="inlineStr"/>
+        <v>50000</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>заключен 18.10.2021</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>20203069990090049244226</t>
+          <t>20203069990090049244225</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>умо</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0068</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Оказание образовательных услуг по основной профессиональной образовательной программе высшего образования - программе ординатуры по специальности «Терапия»</t>
+          <t>Оказание услуг по поверке изделий медицинской техники</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>22122220195742222010010066</t>
+          <t>21122220195742222010010015</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>85.23.11.000</t>
+          <t>71.12.40.129</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>лицензия</t>
+          <t>КПП аккр ЭП</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>п24</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45300</v>
+        <v>44910</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5025,74 +5069,74 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>96300</v>
+        <v>34719.73</v>
       </c>
       <c r="M54" t="n">
-        <v>385200</v>
+        <v>34546.13</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0317100026322000001</t>
+          <t>0317100026321000141</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>ФГБОУ ВО АГМУ Минздрава России</t>
+          <t>АО "АЛТАЙМЕДТЕХНИКА"</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>192600</v>
+        <v>18000</v>
       </c>
       <c r="Q54" t="n">
-        <v>96300</v>
+        <v>18000</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>ФАС 25</t>
+          <t>заключен 27.10.2021</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>20203069990090049244226</t>
+          <t>20203069990090049244225</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>увтс</t>
+          <t>умо</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0094</t>
+          <t>0147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Услуги по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
+          <t>Оказание возмездных услуг по сбору, транспортированию и обезвреживанию отходов</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21122220195742222010010056</t>
+          <t>21122220195742222010010175</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>71.20.11.190</t>
+          <t>38.22.19.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>аккр ЭП</t>
+          <t>СМП ЭП лиц</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5106,46 +5150,46 @@
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>44620</v>
+        <v>44816</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Резниченко</t>
+          <t>Анчухина</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>52-ФЗ</t>
+          <t>7-ФЗ</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>24365.97</v>
       </c>
       <c r="L55" t="n">
-        <v>6944</v>
+        <v>24365.97</v>
       </c>
       <c r="M55" t="n">
-        <v>6944</v>
+        <v>6630.56</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0317100026321000139</t>
+          <t>0317100026321000144</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>ФБУЗ "ЦЕНТР ГИГИЕНЫ И ЭПИДЕМИОЛОГИИ В АЛТАЙСКОМ КРАЕ"</t>
+          <t>ООО "ЭКОЛОГИЯ"</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>заключен 18.10.2021, исполнен 15.02.2022</t>
+          <t>заключен 29.11.2021, расторгнут 10.03.2022</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5155,34 +5199,34 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>умо</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0094</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Оказание услуг по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
+          <t>Оказание услуг по разработке, оформлению паспортов опасных отходов</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>22122220195742222010010060</t>
+          <t>22122220195742222010010071</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>71.20.11.190</t>
+          <t>39.00.23.900</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>аккр</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5196,29 +5240,37 @@
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>44816</v>
+        <v>44834</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Резниченко</t>
+          <t>Анчухина</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>52-ФЗ</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>690.03</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>103746</v>
+        <v>7633.34</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+        <v>7632</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0317100026322000013</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>ООО "ЭКОЛОГИЯ"</t>
+        </is>
+      </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
@@ -5233,19 +5285,19 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>умо</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0047</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Обязательное страхование гражданской ответственности владельца опасного объекта за причинение вреда в результате аварии на опасном объекте (оформление страхового полиса)</t>
+          <t>Оказание услуг по сбору, транспортированию и обезвреживанию медицинских отходов класса Б</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5255,132 +5307,160 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>65.12.50.000</t>
+          <t>38.22.19.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>п4</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Анчухина</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>89-ФЗ</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6146.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4852.5</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>ООО "Оникс"</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>заключен 15.03.2022</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>20203069990090049244226</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0009</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Оказание услуг по сбору, транспортированию и обезвреживанию медицинских отходов класса Г</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22122220195742222010010001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>38.22.19.000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>лицензия</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>п4</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="H57" s="2" t="n">
-        <v>44831</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Мартинец</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>225-ФЗ</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>20203069990090049244227</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>увтс</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Договор обязательного страхования гражданской ответственности владельца опасного объекта за причинение вреда в результате аварии на опасном объекте (участок трубопроводов)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>22122220195742222010010001</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>65.12.90.000</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>лицензия</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>п4</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="n">
-        <v>25569</v>
+        <v>44816</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Анчухина</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>225-ФЗ</t>
+          <t>89-ФЗ</t>
         </is>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>6800</v>
+        <v>1501</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+        <v>1185</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>ООО "Оникс"</t>
+        </is>
+      </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>заключен 15.03.2022</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>20203069990090049244227</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5392,32 +5472,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0114</t>
+          <t>0023</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Поставка стульев на металлическом каркасе</t>
+          <t>Оказание услуг по проведению обязательного психиатрического освидетельствования работников, осуществляющих отдельные виды деятельности, в том числе деятельность, связанную с источниками повышенной опасности, а также работающих в условиях повышенной опасности</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22122220195742222010010038</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>31.01.11.150</t>
+          <t>86.90.18.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>29 1152 685</t>
+          <t>лицензия</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5426,23 +5506,23 @@
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Шуляев</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>25959.34</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>14310.64</v>
+        <v>6700</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -5450,15 +5530,15 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
-          <t>20203069990090049244310</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5470,45 +5550,45 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0158</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Поставка шкафа металлического</t>
+          <t>Оказание образовательных услуг по основной профессиональной образовательной программе высшего образования - программе ординатуры по специальности «Терапия»</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21122220195742222010010183</t>
+          <t>22122220195742222010010066</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>25.99.21.114</t>
+          <t>85.23.11.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>341 126н</t>
+          <t>лицензия</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>44617</v>
+        <v>45300</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Резниченко</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5520,35 +5600,35 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>9490.33</v>
+        <v>96300</v>
       </c>
       <c r="M60" t="n">
-        <v>9490.33</v>
+        <v>385200</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0317100026321000162</t>
+          <t>0317100026322000001</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>ООО "АСП МЕДИКА"</t>
+          <t>ФГБОУ ВО АГМУ Минздрава России</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>192600</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>96300</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>заключен 27.12.2021, исполнен 02.02.2022</t>
+          <t>заключен 16.03.2022</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>20203069990090049244310</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -5560,85 +5640,73 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0161</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Поставка удлинителя силового</t>
+          <t>Оказание услуг по обучению работодателей и работников вопросам охраны труда</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21122220195742222010010185</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>25.73.60.190</t>
+          <t>85.42.19.900</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>СМП</t>
+          <t>30% 834н</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>44701</v>
+        <v>44712</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Шуляев</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>1/29</t>
         </is>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>9550.33</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>9550.33</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0317100026321000172</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>ООО ТОРГОВАЯ КОМПАНИЯ "СОКЭ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>заключен 24.01.2022, исполнен 02.02.2022</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
-          <t>20203069990090049244310</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -5650,41 +5718,41 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0094</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Поставка лампы полимеризационной стоматологической</t>
+          <t>Услуги по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>22122220195742222010010069</t>
+          <t>21122220195742222010010056</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>32.50.11.110</t>
+          <t>71.20.11.190</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>126н</t>
+          <t>аккр ЭП</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>44568</v>
+        <v>44620</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5693,30 +5761,42 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>76-ФЗ</t>
+          <t>52-ФЗ</t>
         </is>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>7093.33</v>
+        <v>6944</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+        <v>6944</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0317100026321000139</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>ФБУЗ "ЦЕНТР ГИГИЕНЫ И ЭПИДЕМИОЛОГИИ В АЛТАЙСКОМ КРАЕ"</t>
+        </is>
+      </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>заключен 18.10.2021, исполнен 15.02.2022</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>20203069990090049244310</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -5728,27 +5808,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0094</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Поставка облучателя-рециркулятора ультрафиолетового бактерицидного</t>
+          <t>Оказание услуг по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22122220195742222010010068</t>
+          <t>22122220195742222010010060</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>32.50.50.190</t>
+          <t>71.20.11.190</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>878 29 126н</t>
+          <t>аккр</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5762,7 +5842,7 @@
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>44568</v>
+        <v>44816</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5771,14 +5851,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>323-ФЗ</t>
+          <t>52-ФЗ</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>690.03</v>
       </c>
       <c r="L63" t="n">
-        <v>4555.37</v>
+        <v>90414</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -5794,7 +5874,7 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>20203069990090049244310</t>
+          <t>20203069990090049244226</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5806,32 +5886,32 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0085</t>
+          <t>0047</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Строительные материалы кровельные</t>
+          <t>Обязательное страхование гражданской ответственности владельца опасного объекта за причинение вреда в результате аварии на опасном объекте (оформление страхового полиса)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>22122220195742222010010040</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>23.99.12</t>
+          <t>65.12.50.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>126н</t>
+          <t>лицензия</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5840,23 +5920,23 @@
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>44772</v>
+        <v>44831</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Мартинец</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>225-ФЗ</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>5.94</v>
+        <v>3000</v>
       </c>
       <c r="L64" t="n">
-        <v>72.51000000000001</v>
+        <v>4000</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -5864,19 +5944,15 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="Q64" t="n">
-        <v>20000</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>остаток</t>
-        </is>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>20203069990090049244344</t>
+          <t>20203069990090049244227</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5888,41 +5964,41 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>0024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Поставка ламп светодиодных</t>
+          <t>Договор обязательного страхования гражданской ответственности владельца опасного объекта за причинение вреда в результате аварии на опасном объекте (участок трубопроводов)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21122220195742222010010145</t>
+          <t>22122220195742222010010001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>27.40.15.150</t>
+          <t>65.12.90.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>СМП 878 126н 1221 1222 2014 1152</t>
+          <t>лицензия</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п4</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>44712</v>
+        <v>25569</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -5931,26 +6007,26 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>57-ФЗ</t>
+          <t>225-ФЗ</t>
         </is>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>19994.06</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>19927.49</v>
+        <v>9000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0317100026321000171</t>
+          <t>100300275122100001</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>ИП НАСЕДКИН АЛЕКСАНДР КОНСТАНТИНОВИЧ</t>
+          <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5961,12 +6037,12 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>заключен 26.01.2022, исполнен 15.02.2022</t>
+          <t>заключен 04.04.2022</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>20203069990090049244344</t>
+          <t>20203069990090049244227</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -5978,27 +6054,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0089</t>
+          <t>0114</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Моющие средства</t>
+          <t>Поставка стульев на металлическом каркасе</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>22122220195742222010010059</t>
+          <t>22122220195742222010010038</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20.41.32.110</t>
+          <t>31.01.11.150</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>126н 617</t>
+          <t>29 1152 685</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6012,7 +6088,7 @@
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>44811</v>
+        <v>44742</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6025,10 +6101,10 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>13362.3</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6036,15 +6112,15 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="Q66" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
-          <t>20203069990090049244346</t>
+          <t>20203069990090049244310</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6056,27 +6132,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0022</t>
+          <t>0021</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Оказание платных образовательных услуг по программе повышения квалификации «Ценообразование в строительстве и сметное нормирование с применением программного комплекса РИК»</t>
+          <t>Оказание услуг по изготовлению информационного стенда «Экологическая безопасность»</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>22122220195742222010010039</t>
+          <t>22122220195742222010010082</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>85.42.19.900</t>
+          <t>18.12.16.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>лицензия, 30%</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6090,11 +6166,11 @@
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>44712</v>
+        <v>44834</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Анчухина</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6103,10 +6179,10 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>2640</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2689.33</v>
+        <v>6920.33</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6114,19 +6190,15 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>50000</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>остаток</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>20207059990090049244226</t>
+          <t>20203069990090049244310</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6138,27 +6210,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0188</t>
+          <t>0158</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Оказание образовательных услуг по программе профессиональной переподготовки «Промышленное и гражданское строительство»</t>
+          <t>Поставка шкафа металлического</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21122220195742222010010017</t>
+          <t>21122220195742222010010183</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>85.42.19.900</t>
+          <t>25.99.21.114</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>лицензия, 30% ЭП</t>
+          <t>341 126н</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6172,35 +6244,35 @@
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>44651</v>
+        <v>44617</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Палочкин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>76-ФЗ</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>37493.33</v>
+        <v>9490.33</v>
       </c>
       <c r="M68" t="n">
-        <v>37493.33</v>
+        <v>9490.33</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0317100026321000155</t>
+          <t>0317100026321000162</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>АНО ЦДПО "Академия"</t>
+          <t>ООО "АСП МЕДИКА"</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -6211,12 +6283,12 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>заключен 20.12.2021</t>
+          <t>заключен 27.12.2021, исполнен 02.02.2022</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>20207059990090049244226</t>
+          <t>20203069990090049244310</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6228,27 +6300,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0154</t>
+          <t>0161</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Оказание образовательных услуг по программе профессиональной переподготовки «Машинист крана автомобильного»</t>
+          <t>Поставка удлинителя силового</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>21122220195742222010010182</t>
+          <t>21122220195742222010010185</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>85.42.19.900</t>
+          <t>25.73.60.190</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>лицензия, 30% ЭП</t>
+          <t>СМП</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6262,269 +6334,253 @@
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>44680</v>
+        <v>44701</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Палочкин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>9550.33</v>
+      </c>
+      <c r="M69" t="n">
+        <v>9550.33</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0317100026321000172</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>ООО ТОРГОВАЯ КОМПАНИЯ "СОКЭ"</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>заключен 24.01.2022, исполнен 02.02.2022</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>20203069990090049244310</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Поставка лампы полимеризационной стоматологической</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>22122220195742222010010069</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>32.50.11.110</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>126н</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Резниченко</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
           <t>76-ФЗ</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9866.67</v>
-      </c>
-      <c r="M69" t="n">
-        <v>9817.34</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0317100026321000156</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>АНО ЦДПО "Академия"</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>заключен 20.12.2021</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>20207059990090049244226</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>увтс</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Водоотведение</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>20122220195742222010010009</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>37.00.11.110</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>п8</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>44561</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Васильев</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>416-ФЗ</t>
-        </is>
-      </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>7093.33</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>15820</v>
       </c>
       <c r="M70" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>8697</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>ООО "БАРНАУЛЬСКИЙ ВОДОКАНАЛ</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>заключен 23.12.2020, исполнен 14.02.2022</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>20203069990090071244223</t>
+          <t>20203069990090049244310</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>умо</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0086</t>
+          <t>0037</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Водоотведение</t>
+          <t>Поставка наборов базовых для внутривенных вливаний</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>21122220195742222010010042</t>
+          <t>22122220195742222010010091</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>37.00.11.110</t>
+          <t>32.50.13.110</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>102 126н</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>п8</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>44926</v>
+        <v>44568</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Резниченко</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>416-ФЗ</t>
+          <t>76-ФЗ</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>159913.75</v>
+        <v>1751</v>
       </c>
       <c r="M71" t="n">
-        <v>100000</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>8697</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>ООО "БАРНАУЛЬСКИЙ ВОДОКАНАЛ</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>100000</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>заключен 15.11.2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>20203069990090071244223</t>
+          <t>20203069990090049244341</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>умо</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0182</t>
+          <t>0085</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Оказание услуг по обращению с твердыми коммунальными отходами</t>
+          <t>Строительные материалы кровельные</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21122220195742222010010057</t>
+          <t>22122220195742222010010040</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>38.21.29.000</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>23.99.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>126н</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>п8</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>44926</v>
+        <v>44772</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6533,84 +6589,80 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>52-ФЗ</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>179994.41</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>70568.85000000001</v>
+        <v>160.5</v>
       </c>
       <c r="M72" t="n">
-        <v>120080.66</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>02И/09/003449</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>ООО «ЭКОСОЮЗ»</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="Q72" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>заключен 17.11.2021</t>
+          <t>остаток</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>20203069990090071244223</t>
+          <t>20203069990090049244344</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0039</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Оплата взносов за капитальный ремонт многоквартирных домов</t>
+          <t>Поставка ламп светодиодных</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>22122220195742222010010001</t>
+          <t>21122220195742222010010145</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>84.12.13.000</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>27.40.15.150</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>СМП 878 126н 1221 1222 2014 1152</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>п4</t>
+          <t>ЭА</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>44926</v>
+        <v>44712</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6623,72 +6675,84 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>58900</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>61000</v>
+        <v>19994.06</v>
       </c>
       <c r="M73" t="n">
-        <v>8011.15</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+        <v>19927.49</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0317100026321000171</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>ИП НАСЕДКИН АЛЕКСАНДР КОНСТАНТИНОВИЧ</t>
+        </is>
+      </c>
       <c r="P73" t="n">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>65000</v>
-      </c>
-      <c r="R73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>заключен 26.01.2022, исполнен 15.02.2022</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>20203069990090071244225</t>
+          <t>20203069990090049244344</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0064</t>
+          <t>0089</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Теплоснабжение и поставка горячей воды</t>
+          <t>Моющие средства</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21122220195742222010010041</t>
+          <t>22122220195742222010010059</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>35.30.11.111</t>
+          <t>20.41.32.110</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ЭП 7.10 предмет</t>
+          <t>126н 617</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>п8</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
-        <v>44926</v>
+        <v>44811</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -6697,87 +6761,95 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>№ 44-ФЗ</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L74" t="n">
-        <v>3940600</v>
+        <v>2.59</v>
       </c>
       <c r="M74" t="n">
-        <v>4219611.8</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>8591Т</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>АО "БАРНАУЛЬСКАЯ ГЕНЕРАЦИЯ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>3940600</v>
+        <v>30000</v>
       </c>
       <c r="Q74" t="n">
-        <v>3940600</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>заключен 02.12.2021</t>
-        </is>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>0014</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Энергоснабжение</t>
+          <t>Поставка шланга</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20122220195742222010010056</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+          <t>22122220195742222010010081</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>22.19.30.120</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>126н 617</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H75" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>44742</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>127687.23</v>
+        <v>6220.5</v>
       </c>
       <c r="M75" t="n">
-        <v>40988.2</v>
+        <v>0</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -6790,53 +6862,53 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>12-0015</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Энергоснабжение</t>
+          <t>Поставка перчаток хозяйственных</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21122220195742222010010040</t>
+          <t>22122220195742222010010080</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>35.13.10.000</t>
+          <t>22.19.60.114</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>КПП к/с</t>
+          <t>126н 617</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>п29</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6845,71 +6917,67 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>№ 861</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1500000</v>
+        <v>10030</v>
       </c>
       <c r="M76" t="n">
-        <v>1572312.77</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>22080090000757</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>АО "АЛТАЙЭНЕРГОСБЫТ"</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>72312.77</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>заключен 06.12.2021</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>0016</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Энергоснабжение</t>
+          <t>Поставка средства моющего для туалетов и ванных комнат</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>22122220195742222010010062</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+          <t>22122220195742222010010079</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20.41.32.114</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>126н 617</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>п29</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6918,15 +6986,23 @@
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>44742</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>3139.95</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6934,61 +7010,77 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>72312.77</v>
+        <v>0</v>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0068</t>
+          <t>0017</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Энергоснабжение</t>
+          <t>Поставка кругов отрезных</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23122220195742222010010016</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+          <t>22122220195742222010010078</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>23.91.11.150</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>п29</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>44742</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6999,54 +7091,58 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0142</t>
+          <t>0018</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Топливно-энергетические ресурсы</t>
+          <t>Поставка электродов</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>21122220195742222010010029</t>
+          <t>22122220195742222010010077</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>35.30.11.111</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>25.93.15.120</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28 126н</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>п8</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>44590</v>
+        <v>44742</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7059,10 +7155,10 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>279011.8</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>8406.959999999999</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -7070,105 +7166,97 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>247687.23</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>247687.23</v>
+        <v>0</v>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>20203069990090071247223</t>
+          <t>20203069990090049244346</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>иэу</t>
+          <t>увтс</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>0022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Поставка шин пневматических для легковых автомобилей (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+          <t>Оказание образовательных услуг по дополнительной профессиональной программе «Контрактная система в сфере закупок для государственных и муниципальных нужд» по повышению квалификации</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>21122220195742222010010000</t>
+          <t>22122220195742222010010039</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.11.11.000</t>
+          <t>85.42.19.900</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>126н</t>
+          <t>лицензия 30% 797н</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>З</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
-        <v>44757</v>
+        <v>44712</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Глухих</t>
+          <t>Шуляев</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>57-ФЗ</t>
         </is>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>65483.35</v>
+        <v>2689.33</v>
       </c>
       <c r="M80" t="n">
-        <v>65483.35</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>2222202217532000000000000/0317100026321000168</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>ООО "СТРОЙТОРГ"</t>
-        </is>
-      </c>
+        <v>33000</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>заключен 24.01.2022</t>
+          <t>остаток</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>20203069990092019211346</t>
+          <t>20207059990090049244226</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -7180,27 +7268,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>0188</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Поставка запасных частей к автомобильной технике (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+          <t>Оказание образовательных услуг по программе профессиональной переподготовки «Промышленное и гражданское строительство»</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>21122220195742222010010000</t>
+          <t>21122220195742222010010017</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>29.32.30.390</t>
+          <t>85.42.19.900</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>лицензия, 30%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7214,35 +7302,35 @@
         </is>
       </c>
       <c r="H81" s="2" t="n">
-        <v>44757</v>
+        <v>44651</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Глухих</t>
+          <t>Палочкин</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>76-ФЗ</t>
         </is>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>147516.65</v>
+        <v>37493.33</v>
       </c>
       <c r="M81" t="n">
-        <v>147516.65</v>
+        <v>37493.33</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2222202117552000000000000/0317100026321000170</t>
+          <t>0317100026321000155</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>ООО "АТК-ЗАПЧАСТЬ"</t>
+          <t>АНО ЦДПО "Академия"</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -7253,12 +7341,12 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>заключен 25.01.2022</t>
+          <t>заключен 20.12.2021, исполнен 18.03.2022</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>20203069990092019211346</t>
+          <t>20207059990090049244226</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -7270,147 +7358,155 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Оказание образовательных услуг по программе профессиональной переподготовки «Машинист крана автомобильного»</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>21122220195742222010010182</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>85.42.19.900</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>лицензия, 30%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ЭА</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Палочкин</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>76-ФЗ</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>9866.67</v>
+      </c>
+      <c r="M82" t="n">
+        <v>9817.34</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0317100026321000156</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>АНО ЦДПО "Академия"</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>заключен 20.12.2021</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>20207059990090049244226</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Водоотведение</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>20122220195742222010010009</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>37.00.11.110</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>нет</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Поставка шин пневматических для грузовых автомобилей (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>22122220195742222010010000</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>22.11.13.110</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>126н</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="n">
-        <v>44568</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Глухих</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>230131</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>20203069990092019211346</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>увтс</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Оказание услуг по ремонту блока SDSL (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>21122220195742222010010000</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>95.12.10.000</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>СМП ЭП</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п8</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="H83" s="2" t="n">
-        <v>44567</v>
+        <v>44561</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Кандауров</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>416-ФЗ</t>
         </is>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>210702.05</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>208000</v>
+        <v>5.59</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2122202217722000000000000/0317100026321000148</t>
+          <t>8697</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>ООО "РАДИОСВЯЗЬ"</t>
+          <t>ООО "БАРНАУЛЬСКИЙ ВОДОКАНАЛ</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -7421,49 +7517,49 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>заключен 03.12.2021</t>
+          <t>заключен 23.12.2020, исполнен 14.02.2022</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>20203069990092019214225</t>
+          <t>20203069990090071244223</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Водоотведение</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21122220195742222010010042</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>37.00.11.110</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>нет</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Оказание услуг по ремонту блока СВЧ2М (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>21122220195742222010010000</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>95.12.10.000</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>СМП ЭП</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ЭА</t>
+          <t>п8</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7472,144 +7568,1506 @@
         </is>
       </c>
       <c r="H84" s="2" t="n">
-        <v>44567</v>
+        <v>44926</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Кандауров</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>416-ФЗ</t>
         </is>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>348848.19</v>
+        <v>100000</v>
       </c>
       <c r="M84" t="n">
-        <v>343500</v>
+        <v>159913.75</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2122202117732000000000000/0317100026321000149</t>
+          <t>8697</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>ООО "РАДИОСВЯЗЬ"</t>
+          <t>ООО "БАРНАУЛЬСКИЙ ВОДОКАНАЛ</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>заключен 03.12.2021</t>
+          <t>заключен 15.11.2021</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>20203069990092019214225</t>
+          <t>20203069990090071244223</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>унто</t>
+          <t>иэу</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Оказание услуг по обращению с твердыми коммунальными отходами</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>21122220195742222010010057</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>38.21.29.000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>п8</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>52-ФЗ</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>179994.41</v>
+      </c>
+      <c r="L85" t="n">
+        <v>70568.85000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>120080.66</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>02И/09/003449</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>ООО «ЭКОСОЮЗ»</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>180000</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>заключен 17.11.2021</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>20203069990090071244223</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Оплата взносов за капитальный ремонт многоквартирных домов</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>22122220195742222010010001</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>84.12.13.000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>п4</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>58900</v>
+      </c>
+      <c r="L86" t="n">
+        <v>61000</v>
+      </c>
+      <c r="M86" t="n">
+        <v>8011.15</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>63000</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>65000</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>20203069990090071244225</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0064</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Теплоснабжение и поставка горячей воды</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>21122220195742222010010041</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>35.30.11.111</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ЭП 7.10 предмет</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>п8</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>№ 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3940600</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4219611.8</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>8591Т</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>АО "БАРНАУЛЬСКАЯ ГЕНЕРАЦИЯ"</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3940600</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3940600</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>заключен 02.12.2021</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Энергоснабжение</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>20122220195742222010010056</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>127687.23</v>
+      </c>
+      <c r="M88" t="n">
+        <v>40988.2</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>исполнен 17.02.2022</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Энергоснабжение</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>21122220195742222010010040</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>35.13.10.000</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>КПП к/с</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>п29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>№ 861</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1572312.77</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>22080090000757</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>АО "АЛТАЙЭНЕРГОСБЫТ"</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>72312.77</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>заключен 06.12.2021</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Энергоснабжение</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>22122220195742222010010062</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>п29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>72312.77</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Энергоснабжение</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>23122220195742222010010016</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>п29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>25569</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0142</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Топливно-энергетические ресурсы</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>21122220195742222010010029</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>35.30.11.111</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>п8</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>44590</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Васильев</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>57-ФЗ</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>279011.8</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="n">
+        <v>247687.23</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>247687.23</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>20203069990090071247223</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>иэу</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>нет</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Поставка шин пневматических для легковых автомобилей (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>21122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>22.11.11.000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>126н</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ЭА</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Глухих</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>65483.35</v>
+      </c>
+      <c r="M93" t="n">
+        <v>65483.35</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2222202217532000000000000/0317100026321000168</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>ООО "СТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>заключен 24.01.2022, исполнен 21.03.2022</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>20203069990092019211346</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Поставка запасных частей к автомобильной технике (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>21122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>29.32.30.390</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ЭА</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Глухих</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>147516.65</v>
+      </c>
+      <c r="M94" t="n">
+        <v>147516.65</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2222202117552000000000000/0317100026321000170</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>ООО "АТК-ЗАПЧАСТЬ"</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>заключен 25.01.2022</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20203069990092019211346</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Поставка шин пневматических для грузовых автомобилей (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>22.11.13.110</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ГОЗ 126н</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Глухих</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>230131</v>
+      </c>
+      <c r="M95" t="n">
+        <v>230131</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2222202217602000000000000/0317100026322000006</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>ООО "СТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>контракт с 12.04.2022</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>20203069990092019211346</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Поставка датчика уровня топлива-топливозаборника (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>22122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>29.31.22.190</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ГОЗ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>44570</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Глухих</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7566.67</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>20203069990092019211346</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Оказание услуг по ремонту плат управления МС-800-02 (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>22122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>33.12.29.900</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>п52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Кандауров</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>17449.76</v>
+      </c>
+      <c r="L97" t="n">
+        <v>25500</v>
+      </c>
+      <c r="M97" t="n">
+        <v>32678.33</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="n">
+        <v>605000</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>625000</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>остаток</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>20203069990092019214225</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>унто</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Оказание услуг по дефектации электроагрегата АДП5-Т400 (для последующего ремонта военно-технического имущества в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>22122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>33.12.19.000</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>44569</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Кандауров</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>120666.67</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>20203069990092019214225</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>унто</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Оказание услуг по ремонту блока SDSL (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>21122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>95.12.10.000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>СМП ЭП</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ЭА</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Кандауров</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>210702.05</v>
+      </c>
+      <c r="M99" t="n">
+        <v>208000</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2122202217722000000000000/0317100026321000148</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>ООО "РАДИОСВЯЗЬ"</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>заключен 03.12.2021</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>20203069990092019214225</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>унто</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Оказание услуг по ремонту блока СВЧ2М (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>21122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>95.12.10.000</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>СМП ЭП</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ЭА</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Кандауров</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>348848.19</v>
+      </c>
+      <c r="M100" t="n">
+        <v>343500</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2122202117732000000000000/0317100026321000149</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>ООО "РАДИОСВЯЗЬ"</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>заключен 03.12.2021</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>20203069990092019214225</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>унто</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Оказание услуг по техническому обслуживанию автомобилей КамАЗ (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>21122220195742222010010000</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>45.20.21.111</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>СМП КС</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>ЭА</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H101" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Зайцев</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
       </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>825546.6899999999</v>
       </c>
-      <c r="M85" t="n">
+      <c r="M101" t="n">
         <v>825546.6899999999</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>2222202217542000000000000/0317100026321000169</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>ООО "БАРНАУЛЬСКИЙ АВТОЦЕНТР КАМАЗ"</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>заключен 24.01.2022</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>20203069990092019214225</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>увтс</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Оказание услуг по текущему ремонту автомобильного прицепа (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>22122220195742222010010000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>45.20.21.215</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ГОЗ</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Зайцев</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>49453.31</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>20203069990092019214225</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
         <is>
           <t>увтс</t>
         </is>
